--- a/ebi-den-su/docs/テスト仕様書.xlsx
+++ b/ebi-den-su/docs/テスト仕様書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tak/Documents/git/ebi-den-su/ebi-den-su/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0992B9-D70E-554B-A0CF-B2BD15C40853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8B086F-0391-DE48-A8ED-28647D13E514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
+    <workbookView xWindow="680" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>クラス</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>selenium.SeleniumTest1</t>
+  </si>
+  <si>
+    <t>test0</t>
   </si>
 </sst>
 </file>
@@ -391,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D088E3C6-0D47-1540-8498-A5E262BE2318}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -418,6 +425,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ebi-den-su/docs/テスト仕様書.xlsx
+++ b/ebi-den-su/docs/テスト仕様書.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tak/Documents/git/ebi-den-su/ebi-den-su/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8B086F-0391-DE48-A8ED-28647D13E514}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D07C12-BC2E-6943-921A-9693769DA1B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
+    <workbookView xWindow="280" yWindow="4520" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>クラス</t>
   </si>
@@ -47,6 +46,9 @@
   </si>
   <si>
     <t>test0</t>
+  </si>
+  <si>
+    <t>テスト結果</t>
   </si>
 </sst>
 </file>
@@ -398,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D088E3C6-0D47-1540-8498-A5E262BE2318}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +418,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -425,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>

--- a/ebi-den-su/docs/テスト仕様書.xlsx
+++ b/ebi-den-su/docs/テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tak/Documents/git/ebi-den-su/ebi-den-su/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D07C12-BC2E-6943-921A-9693769DA1B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0807D-C55B-FE4E-90CE-97F4464F970C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="4520" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
+    <workbookView xWindow="280" yWindow="3560" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>クラス</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>テスト結果</t>
+  </si>
+  <si>
+    <t>テストNO</t>
   </si>
 </sst>
 </file>
@@ -400,45 +403,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D088E3C6-0D47-1540-8498-A5E262BE2318}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ebi-den-su/docs/テスト仕様書.xlsx
+++ b/ebi-den-su/docs/テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tak/Documents/git/ebi-den-su/ebi-den-su/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B0807D-C55B-FE4E-90CE-97F4464F970C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECDA18-4F51-9E4A-9FE4-A6085F0B2C1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="3560" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
+    <workbookView xWindow="620" yWindow="2700" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>クラス</t>
   </si>
@@ -33,9 +33,6 @@
     <t>メソッド</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
     <t>dense.TestCase1</t>
   </si>
   <si>
@@ -52,6 +49,45 @@
   </si>
   <si>
     <t>テストNO</t>
+  </si>
+  <si>
+    <t>aaaa
+aaaa
+aaaa</t>
+  </si>
+  <si>
+    <t>bbb
+ccc</t>
+  </si>
+  <si>
+    <t>検証項目</t>
+  </si>
+  <si>
+    <t>テスト概要</t>
+  </si>
+  <si>
+    <t>テスト項目</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>テストのテスト１</t>
+  </si>
+  <si>
+    <t>手順</t>
+  </si>
+  <si>
+    <t>1
+2
+3</t>
+  </si>
+  <si>
+    <t>テストのテスト２
+テストのテスト3</t>
+  </si>
+  <si>
+    <t>実施日</t>
   </si>
 </sst>
 </file>
@@ -87,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,49 +442,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D088E3C6-0D47-1540-8498-A5E262BE2318}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9" ht="51">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="68">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ebi-den-su/docs/テスト仕様書.xlsx
+++ b/ebi-den-su/docs/テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tak/Documents/git/ebi-den-su/ebi-den-su/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECDA18-4F51-9E4A-9FE4-A6085F0B2C1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706288C9-4007-8149-94D7-DDDDBCDA3B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="2700" windowWidth="28040" windowHeight="17440" xr2:uid="{3771D6DB-D8DF-4A48-8F6E-095AE3805AA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>クラス</t>
   </si>
@@ -56,10 +56,6 @@
 aaaa</t>
   </si>
   <si>
-    <t>bbb
-ccc</t>
-  </si>
-  <si>
     <t>検証項目</t>
   </si>
   <si>
@@ -88,6 +84,14 @@
   </si>
   <si>
     <t>実施日</t>
+  </si>
+  <si>
+    <t>bbb
+bbb</t>
+  </si>
+  <si>
+    <t>ccccc
+cccc</t>
   </si>
 </sst>
 </file>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D088E3C6-0D47-1540-8498-A5E262BE2318}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -455,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -470,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -484,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -503,20 +507,30 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="68">
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="3" spans="1:9" ht="34">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="68">
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
